--- a/Project_Code/Statistical Analysis.xlsx
+++ b/Project_Code/Statistical Analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Freelancing work\Data Mining\implementation\Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Semester3\website\ProjectHealth\Project_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1569,7 +1569,10 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>Sales Trend by Day</a:t>
             </a:r>
           </a:p>
@@ -1674,6 +1677,10 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1693,6 +1700,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1701,6 +1712,12 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1738,14 +1755,23 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>Sale</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2400" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t> Trends by Month</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1878,6 +1904,32 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0">
+                    <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Months</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1050" b="0">
+                  <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1897,6 +1949,35 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0">
+                    <a:latin typeface="Georgia" panose="02040502050405020303" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Total Sales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.3778212496814454E-3"/>
+              <c:y val="0.43110546179153059"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1922,16 +2003,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>374194</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>225366</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>39461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>582556</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1952,15 +2033,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>436279</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>463494</xdr:colOff>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1982,16 +2063,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>843644</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2756297</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>134369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>478971</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2242797</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2012,16 +2093,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>865415</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1964531</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:rowOff>65312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>74839</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2332,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="35" zoomScaleNormal="35" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="32" zoomScaleNormal="32" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Project_Code/Statistical Analysis.xlsx
+++ b/Project_Code/Statistical Analysis.xlsx
@@ -1934,6 +1934,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="270496896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1982,6 +1992,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="270486528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2093,16 +2113,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1964531</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>65312</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>416719</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>89297</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>401053</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>50132</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2413,7 +2433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="32" zoomScaleNormal="32" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="19" zoomScaleNormal="19" workbookViewId="0">
       <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
